--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\OzonFind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\KivyFile\MarketFinds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675F133-5A3F-4E03-BB06-A770018D7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F1A5C-4046-45F9-928F-FFC9A2E6AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8824,7 +8824,7 @@
   <dimension ref="A1:CF963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
